--- a/Use cases with actors.xlsx
+++ b/Use cases with actors.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD12066-D240-45DB-9428-BDBC18856702}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="27">
   <si>
     <t>Admin</t>
   </si>
@@ -105,7 +106,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -165,7 +166,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,6 +226,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -280,7 +287,7 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -313,6 +320,7 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="3" applyFill="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="%40 - Vurgu3" xfId="5" builtinId="39"/>
@@ -602,26 +610,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="32.140625" customWidth="1"/>
+    <col min="2" max="2" width="32.109375" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" customWidth="1"/>
+    <col min="8" max="8" width="23.44140625" customWidth="1"/>
+    <col min="12" max="12" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="46.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="46.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
@@ -641,7 +649,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -654,12 +662,12 @@
       <c r="F2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="8"/>
+      <c r="G2" s="14"/>
       <c r="K2" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -677,7 +685,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -690,12 +698,12 @@
       <c r="F4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="8"/>
+      <c r="G4" s="14"/>
       <c r="K4" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -713,7 +721,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -728,7 +736,7 @@
       </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -741,9 +749,9 @@
       <c r="F7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -758,7 +766,7 @@
       </c>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -773,7 +781,7 @@
       </c>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -788,7 +796,7 @@
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -803,7 +811,7 @@
       </c>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -818,7 +826,7 @@
       </c>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -833,7 +841,7 @@
       </c>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -846,9 +854,9 @@
       <c r="F14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -863,7 +871,7 @@
       </c>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -878,7 +886,7 @@
       </c>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -893,7 +901,7 @@
       </c>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>

--- a/Use cases with actors.xlsx
+++ b/Use cases with actors.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD12066-D240-45DB-9428-BDBC18856702}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E66A4E-56FD-4278-94BA-C2377BF46698}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4050" yWindow="2040" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>Admin</t>
   </si>
@@ -323,17 +323,17 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="3" applyFill="1"/>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="%40 - Vurgu3" xfId="5" builtinId="39"/>
-    <cellStyle name="%60 - Vurgu2" xfId="4" builtinId="36"/>
-    <cellStyle name="%60 - Vurgu4" xfId="6" builtinId="44"/>
-    <cellStyle name="%60 - Vurgu5" xfId="7" builtinId="48"/>
-    <cellStyle name="%60 - Vurgu6" xfId="8" builtinId="52"/>
-    <cellStyle name="Çıkış" xfId="3" builtinId="21"/>
-    <cellStyle name="İşaretli Hücre" xfId="9" builtinId="23"/>
-    <cellStyle name="İyi" xfId="1" builtinId="26"/>
-    <cellStyle name="Kötü" xfId="2" builtinId="27"/>
+    <cellStyle name="40% - Accent3" xfId="5" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="4" builtinId="36"/>
+    <cellStyle name="60% - Accent4" xfId="6" builtinId="44"/>
+    <cellStyle name="60% - Accent5" xfId="7" builtinId="48"/>
+    <cellStyle name="60% - Accent6" xfId="8" builtinId="52"/>
+    <cellStyle name="Accent6" xfId="10" builtinId="49"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Check Cell" xfId="9" builtinId="23"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Vurgu6" xfId="10" builtinId="49"/>
+    <cellStyle name="Output" xfId="3" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -613,23 +613,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="32.109375" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" customWidth="1"/>
-    <col min="8" max="8" width="23.44140625" customWidth="1"/>
-    <col min="12" max="12" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="46.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="46.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
@@ -649,7 +649,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -667,7 +667,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -685,7 +685,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -703,7 +703,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -721,7 +721,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -736,7 +736,7 @@
       </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -751,7 +751,7 @@
       </c>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -766,7 +766,7 @@
       </c>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -779,9 +779,9 @@
       <c r="F9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -796,7 +796,7 @@
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -809,9 +809,9 @@
       <c r="F11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -826,7 +826,7 @@
       </c>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -839,9 +839,9 @@
       <c r="F13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -856,7 +856,7 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -871,7 +871,7 @@
       </c>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -884,9 +884,9 @@
       <c r="F16" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -901,7 +901,7 @@
       </c>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>

--- a/Use cases with actors.xlsx
+++ b/Use cases with actors.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E66A4E-56FD-4278-94BA-C2377BF46698}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4050" yWindow="2040" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4050" yWindow="2040" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -73,9 +72,6 @@
     <t>Ban User</t>
   </si>
   <si>
-    <t>ASSINGMNETS</t>
-  </si>
-  <si>
     <t>Favorite(Save) Survey</t>
   </si>
   <si>
@@ -101,12 +97,15 @@
   </si>
   <si>
     <t>EMRE</t>
+  </si>
+  <si>
+    <t>ASSIGNMENTS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -610,11 +609,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,10 +642,10 @@
         <v>2</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -660,11 +659,11 @@
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
       <c r="F2" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" s="14"/>
       <c r="K2" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -678,11 +677,11 @@
       <c r="D3" s="6"/>
       <c r="E3" s="5"/>
       <c r="F3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="G3" s="14"/>
       <c r="K3" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -696,11 +695,11 @@
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
       <c r="F4" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G4" s="14"/>
       <c r="K4" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -708,17 +707,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
       <c r="F5" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="9"/>
       <c r="K5" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -732,9 +731,9 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -747,7 +746,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="6"/>
       <c r="F7" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" s="14"/>
     </row>
@@ -762,9 +761,9 @@
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
       <c r="F8" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -777,7 +776,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G9" s="9"/>
     </row>
@@ -792,7 +791,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="6"/>
       <c r="F10" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10" s="8"/>
     </row>
@@ -807,7 +806,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" s="9"/>
     </row>
@@ -822,9 +821,9 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -837,7 +836,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G13" s="9"/>
     </row>
@@ -852,7 +851,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G14" s="14"/>
     </row>
@@ -861,13 +860,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="5"/>
       <c r="E15" s="6"/>
       <c r="F15" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G15" s="9"/>
     </row>
@@ -882,7 +881,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G16" s="9"/>
     </row>
@@ -891,13 +890,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="5"/>
       <c r="E17" s="6"/>
       <c r="F17" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G17" s="9"/>
     </row>
@@ -906,13 +905,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="5"/>
       <c r="E18" s="6"/>
       <c r="F18" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G18" s="9"/>
     </row>

--- a/Use cases with actors.xlsx
+++ b/Use cases with actors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="4050" yWindow="2040" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
@@ -57,9 +57,6 @@
     <t>Share Any Survey</t>
   </si>
   <si>
-    <t>Check Own Survey Statistics</t>
-  </si>
-  <si>
     <t>Check All Surveys</t>
   </si>
   <si>
@@ -75,15 +72,6 @@
     <t>Favorite(Save) Survey</t>
   </si>
   <si>
-    <t>Unfavorite Survey</t>
-  </si>
-  <si>
-    <t>Delete Survey(Own)</t>
-  </si>
-  <si>
-    <t>Edit Survey(Own)</t>
-  </si>
-  <si>
     <t>Is Written? USE CASES</t>
   </si>
   <si>
@@ -100,12 +88,24 @@
   </si>
   <si>
     <t>ASSIGNMENTS</t>
+  </si>
+  <si>
+    <t>Check my Survey Statistics</t>
+  </si>
+  <si>
+    <t>Edit my Survey</t>
+  </si>
+  <si>
+    <t>Delete my Survey</t>
+  </si>
+  <si>
+    <t>Unfavorite  Survey</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -286,7 +286,7 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -305,7 +305,6 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="9" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="10" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -322,17 +321,17 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="3" applyFill="1"/>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="40% - Accent3" xfId="5" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="4" builtinId="36"/>
-    <cellStyle name="60% - Accent4" xfId="6" builtinId="44"/>
-    <cellStyle name="60% - Accent5" xfId="7" builtinId="48"/>
-    <cellStyle name="60% - Accent6" xfId="8" builtinId="52"/>
-    <cellStyle name="Accent6" xfId="10" builtinId="49"/>
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Check Cell" xfId="9" builtinId="23"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="%40 - Vurgu3" xfId="5" builtinId="39"/>
+    <cellStyle name="%60 - Vurgu2" xfId="4" builtinId="36"/>
+    <cellStyle name="%60 - Vurgu4" xfId="6" builtinId="44"/>
+    <cellStyle name="%60 - Vurgu5" xfId="7" builtinId="48"/>
+    <cellStyle name="%60 - Vurgu6" xfId="8" builtinId="52"/>
+    <cellStyle name="Çıkış" xfId="3" builtinId="21"/>
+    <cellStyle name="İşaretli Hücre" xfId="9" builtinId="23"/>
+    <cellStyle name="İyi" xfId="1" builtinId="26"/>
+    <cellStyle name="Kötü" xfId="2" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="3" builtinId="21"/>
+    <cellStyle name="Vurgu6" xfId="10" builtinId="49"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -613,7 +612,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,10 +641,10 @@
         <v>2</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -658,12 +657,12 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="14"/>
-      <c r="K2" s="10" t="s">
-        <v>22</v>
+      <c r="F2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="K2" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -676,12 +675,12 @@
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="5"/>
-      <c r="F3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="14"/>
-      <c r="K3" s="11" t="s">
-        <v>23</v>
+      <c r="F3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="K3" s="10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -694,12 +693,12 @@
       <c r="C4" s="6"/>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="K4" s="12" t="s">
-        <v>24</v>
+      <c r="F4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="K4" s="11" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -707,17 +706,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="K5" s="13" t="s">
-        <v>25</v>
+      <c r="F5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="K5" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -730,10 +729,10 @@
       <c r="C6" s="6"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="14"/>
+      <c r="F6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -745,10 +744,10 @@
       <c r="C7" s="6"/>
       <c r="D7" s="5"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="14"/>
+      <c r="F7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -760,10 +759,10 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="14"/>
+      <c r="F8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -775,23 +774,23 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="9"/>
+      <c r="F9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="5"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="11" t="s">
-        <v>23</v>
+      <c r="F10" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="G10" s="8"/>
     </row>
@@ -800,15 +799,15 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="9"/>
+      <c r="F11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -820,100 +819,100 @@
       <c r="C12" s="6"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="14"/>
+      <c r="F12" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="9"/>
+      <c r="F13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="14"/>
+      <c r="F14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="5"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="9"/>
+      <c r="F15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="9"/>
+      <c r="F16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="5"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="9"/>
+      <c r="F17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="5"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="9"/>
+      <c r="F18" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Use cases with actors.xlsx
+++ b/Use cases with actors.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>Admin</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>Unfavorite  Survey</t>
+  </si>
+  <si>
+    <t>Delete any Survey</t>
+  </si>
+  <si>
+    <t>Check all Survey Statistics</t>
   </si>
 </sst>
 </file>
@@ -609,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,6 +920,36 @@
       </c>
       <c r="G18" s="8"/>
     </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Use cases with actors.xlsx
+++ b/Use cases with actors.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>Admin</t>
   </si>
@@ -103,9 +103,6 @@
   </si>
   <si>
     <t>Delete any Survey</t>
-  </si>
-  <si>
-    <t>Check all Survey Statistics</t>
   </si>
 </sst>
 </file>
@@ -615,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,21 +932,6 @@
       </c>
       <c r="G19" s="8"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="8"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
